--- a/阶段提交/4.测试阶段/测试结果-12.xlsx
+++ b/阶段提交/4.测试阶段/测试结果-12.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\艾德米\Desktop\project-Spider\阶段提交\4.测试阶段\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="146">
   <si>
     <t>测试编号</t>
   </si>
@@ -230,9 +235,6 @@
     <t>德莉莎</t>
   </si>
   <si>
-    <t>关于琪亚娜的图片</t>
-  </si>
-  <si>
     <t>Q-01-03-04</t>
   </si>
   <si>
@@ -314,9 +316,6 @@
     <t>查看今日推荐</t>
   </si>
   <si>
-    <t>显示退机i案的相关作品</t>
-  </si>
-  <si>
     <t>点击相关推荐的左右按钮</t>
   </si>
   <si>
@@ -440,35 +439,70 @@
     <t>弹出下载框面</t>
   </si>
   <si>
+    <t>修改下载方式</t>
+  </si>
+  <si>
+    <t>在下载框面可以选取不同的下载方式</t>
+  </si>
+  <si>
+    <t>点击选取不同的下载方式</t>
+  </si>
+  <si>
+    <t>选择算法</t>
+  </si>
+  <si>
+    <t>用不同的下载器下载</t>
+  </si>
+  <si>
+    <t>关于德莉莎的图片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示推荐的相关作品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Q-06-03</t>
-  </si>
-  <si>
-    <t>修改下载方式</t>
-  </si>
-  <si>
-    <t>在下载框面可以选取不同的下载方式</t>
-  </si>
-  <si>
-    <t>点击选取不同的下载方式</t>
-  </si>
-  <si>
-    <t>选择算法</t>
-  </si>
-  <si>
-    <t>用不同的下载器下载</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-06-04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强行中断当前爬取状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击中断按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面切换</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到当前爬取结果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到当前爬取结果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,345 +537,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -849,255 +568,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1119,59 +596,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1461,28 +902,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.0916666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.0916666666667" customWidth="1"/>
-    <col min="3" max="3" width="26.0916666666667" customWidth="1"/>
-    <col min="4" max="4" width="24.9083333333333" customWidth="1"/>
-    <col min="5" max="5" width="22.1833333333333" customWidth="1"/>
-    <col min="6" max="6" width="20.0916666666667" customWidth="1"/>
-    <col min="7" max="7" width="18.0916666666667" customWidth="1"/>
-    <col min="8" max="8" width="20.3666666666667" customWidth="1"/>
-    <col min="9" max="9" width="49.45" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:9">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1537,7 +977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1563,7 +1003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1589,7 +1029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1615,7 +1055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1641,7 +1081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1667,7 +1107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1693,7 +1133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1719,7 +1159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1745,7 +1185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1761,19 +1201,19 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>62</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -1782,13 +1222,13 @@
         <v>52</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>55</v>
@@ -1797,9 +1237,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
@@ -1808,24 +1248,24 @@
         <v>52</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>69</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
@@ -1834,21 +1274,21 @@
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>72</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
@@ -1857,21 +1297,21 @@
         <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>75</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
@@ -1880,13 +1320,13 @@
         <v>52</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>55</v>
@@ -1895,145 +1335,145 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
       </c>
       <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>82</v>
       </c>
-      <c r="G17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>83</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>84</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>86</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
       </c>
       <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>87</v>
       </c>
-      <c r="G18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>88</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" t="s">
         <v>89</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>90</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>91</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>92</v>
       </c>
-      <c r="F19" t="s">
+      <c r="B20" t="s">
         <v>93</v>
       </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
         <v>94</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
       </c>
       <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="G20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
         <v>99</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>100</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" t="s">
-        <v>102</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
       </c>
       <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
         <v>103</v>
       </c>
-      <c r="G21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>58</v>
@@ -2051,335 +1491,350 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="G28" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="B30" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
         <v>127</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>128</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" t="s">
         <v>129</v>
       </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s">
         <v>130</v>
       </c>
-      <c r="E30" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="C31" t="s">
         <v>131</v>
       </c>
-      <c r="G30" t="s">
-        <v>131</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
+      <c r="D31" t="s">
         <v>132</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>133</v>
       </c>
-      <c r="C31" t="s">
+      <c r="F31" t="s">
         <v>134</v>
       </c>
-      <c r="D31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" t="s">
-        <v>137</v>
-      </c>
       <c r="G31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="4:8">
-      <c r="D32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="4:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="45" spans="4:8">
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="4:8">
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="4:8">
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="4:8">
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="4:8">
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="4:8">
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="4:8">
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D51" s="5"/>
       <c r="F51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="4:8">
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>